--- a/WBAN_Sim/WBAN_GenResult/Energy1107.xlsx
+++ b/WBAN_Sim/WBAN_GenResult/Energy1107.xlsx
@@ -374,11 +374,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="52959744"/>
-        <c:axId val="135987776"/>
+        <c:axId val="135555072"/>
+        <c:axId val="104060544"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="52959744"/>
+        <c:axId val="135555072"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -388,7 +388,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="135987776"/>
+        <c:crossAx val="104060544"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -396,7 +396,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="135987776"/>
+        <c:axId val="104060544"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -409,7 +409,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="52959744"/>
+        <c:crossAx val="135555072"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -712,11 +712,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="152051200"/>
-        <c:axId val="194408384"/>
+        <c:axId val="136417280"/>
+        <c:axId val="136268608"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="152051200"/>
+        <c:axId val="136417280"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -726,7 +726,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="194408384"/>
+        <c:crossAx val="136268608"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -734,7 +734,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="194408384"/>
+        <c:axId val="136268608"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -747,9 +747,10 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="152051200"/>
+        <c:crossAx val="136417280"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
+        <c:majorUnit val="0.1"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -1039,11 +1040,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="152380416"/>
-        <c:axId val="194410688"/>
+        <c:axId val="136418304"/>
+        <c:axId val="136270336"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="152380416"/>
+        <c:axId val="136418304"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1053,7 +1054,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="194410688"/>
+        <c:crossAx val="136270336"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1061,7 +1062,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="194410688"/>
+        <c:axId val="136270336"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -1074,7 +1075,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="152380416"/>
+        <c:crossAx val="136418304"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1378,11 +1379,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="184430592"/>
-        <c:axId val="145606336"/>
+        <c:axId val="136419328"/>
+        <c:axId val="136273216"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="184430592"/>
+        <c:axId val="136419328"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1392,7 +1393,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="145606336"/>
+        <c:crossAx val="136273216"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1400,7 +1401,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="145606336"/>
+        <c:axId val="136273216"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -1413,9 +1414,10 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="184430592"/>
+        <c:crossAx val="136419328"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
+        <c:majorUnit val="0.1"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -1706,11 +1708,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="152381952"/>
-        <c:axId val="145608640"/>
+        <c:axId val="136420352"/>
+        <c:axId val="136272640"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="152381952"/>
+        <c:axId val="136420352"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1720,7 +1722,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="145608640"/>
+        <c:crossAx val="136272640"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1728,7 +1730,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="145608640"/>
+        <c:axId val="136272640"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -1741,7 +1743,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="152381952"/>
+        <c:crossAx val="136420352"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2044,11 +2046,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="152382464"/>
-        <c:axId val="145612096"/>
+        <c:axId val="136420864"/>
+        <c:axId val="135942080"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="152382464"/>
+        <c:axId val="136420864"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2058,7 +2060,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="145612096"/>
+        <c:crossAx val="135942080"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2066,7 +2068,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="145612096"/>
+        <c:axId val="135942080"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -2079,9 +2081,10 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="152382464"/>
+        <c:crossAx val="136420864"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
+        <c:majorUnit val="0.1"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -2361,11 +2364,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="52959232"/>
-        <c:axId val="161607040"/>
+        <c:axId val="135556608"/>
+        <c:axId val="135963200"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="52959232"/>
+        <c:axId val="135556608"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2375,7 +2378,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="161607040"/>
+        <c:crossAx val="135963200"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2383,7 +2386,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="161607040"/>
+        <c:axId val="135963200"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -2396,9 +2399,10 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="52959232"/>
+        <c:crossAx val="135556608"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
+        <c:majorUnit val="0.1"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -2673,11 +2677,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="52960256"/>
-        <c:axId val="192021056"/>
+        <c:axId val="136040960"/>
+        <c:axId val="135964928"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="52960256"/>
+        <c:axId val="136040960"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2687,7 +2691,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="192021056"/>
+        <c:crossAx val="135964928"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2695,7 +2699,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="192021056"/>
+        <c:axId val="135964928"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -2708,7 +2712,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="52960256"/>
+        <c:crossAx val="136040960"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2990,11 +2994,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="65964032"/>
-        <c:axId val="192024512"/>
+        <c:axId val="136041984"/>
+        <c:axId val="135967808"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="65964032"/>
+        <c:axId val="136041984"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3004,7 +3008,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="192024512"/>
+        <c:crossAx val="135967808"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3012,7 +3016,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="192024512"/>
+        <c:axId val="135967808"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -3025,9 +3029,10 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="65964032"/>
+        <c:crossAx val="136041984"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
+        <c:majorUnit val="0.1"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -3302,11 +3307,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="51998720"/>
-        <c:axId val="192026816"/>
+        <c:axId val="136043008"/>
+        <c:axId val="135969536"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="51998720"/>
+        <c:axId val="136043008"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3316,7 +3321,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="192026816"/>
+        <c:crossAx val="135969536"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3324,7 +3329,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="192026816"/>
+        <c:axId val="135969536"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -3337,7 +3342,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="51998720"/>
+        <c:crossAx val="136043008"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3619,11 +3624,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="52623872"/>
-        <c:axId val="192235200"/>
+        <c:axId val="136044032"/>
+        <c:axId val="136472256"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="52623872"/>
+        <c:axId val="136044032"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3633,7 +3638,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="192235200"/>
+        <c:crossAx val="136472256"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3641,7 +3646,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="192235200"/>
+        <c:axId val="136472256"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -3654,9 +3659,10 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="52623872"/>
+        <c:crossAx val="136044032"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
+        <c:majorUnit val="0.1"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -3931,11 +3937,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="52624384"/>
-        <c:axId val="192237504"/>
+        <c:axId val="135556096"/>
+        <c:axId val="136473984"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="52624384"/>
+        <c:axId val="135556096"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3945,7 +3951,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="192237504"/>
+        <c:crossAx val="136473984"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3953,7 +3959,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="192237504"/>
+        <c:axId val="136473984"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -3966,7 +3972,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="52624384"/>
+        <c:crossAx val="135556096"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4248,11 +4254,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="52624896"/>
-        <c:axId val="192240960"/>
+        <c:axId val="136574464"/>
+        <c:axId val="136476864"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="52624896"/>
+        <c:axId val="136574464"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4262,7 +4268,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="192240960"/>
+        <c:crossAx val="136476864"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4270,7 +4276,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="192240960"/>
+        <c:axId val="136476864"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -4283,9 +4289,10 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="52624896"/>
+        <c:crossAx val="136574464"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
+        <c:majorUnit val="0.1"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -4581,11 +4588,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="152379392"/>
-        <c:axId val="191580416"/>
+        <c:axId val="132005888"/>
+        <c:axId val="136476288"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="152379392"/>
+        <c:axId val="132005888"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4595,7 +4602,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="191580416"/>
+        <c:crossAx val="136476288"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4603,7 +4610,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="191580416"/>
+        <c:axId val="136476288"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -4616,7 +4623,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="152379392"/>
+        <c:crossAx val="132005888"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5088,6 +5095,695 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>285750</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="771045" cy="264560"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="文字方塊 1"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="14839950" y="2457450"/>
+          <a:ext cx="771045" cy="264560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-TW" sz="1100"/>
+            <a:t>Utilization</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-TW" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>276225</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="771045" cy="264560"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="17" name="文字方塊 16"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="19631025" y="2457450"/>
+          <a:ext cx="771045" cy="264560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-TW" sz="1100"/>
+            <a:t>Utilization</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-TW" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>276225</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="771045" cy="264560"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="18" name="文字方塊 17"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="14830425" y="5400675"/>
+          <a:ext cx="771045" cy="264560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-TW" sz="1100"/>
+            <a:t>Utilization</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-TW" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>276225</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="771045" cy="264560"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="19" name="文字方塊 18"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="19631025" y="5410200"/>
+          <a:ext cx="771045" cy="264560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-TW" sz="1100"/>
+            <a:t>Utilization</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-TW" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>285750</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="771045" cy="264560"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="20" name="文字方塊 19"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="14839950" y="8343900"/>
+          <a:ext cx="771045" cy="264560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-TW" sz="1100"/>
+            <a:t>Utilization</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-TW" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>276225</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="771045" cy="264560"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="21" name="文字方塊 20"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="19631025" y="8334375"/>
+          <a:ext cx="771045" cy="264560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-TW" sz="1100"/>
+            <a:t>Utilization</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-TW" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>285750</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="771045" cy="264560"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="22" name="文字方塊 21"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="14839950" y="11277600"/>
+          <a:ext cx="771045" cy="264560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-TW" sz="1100"/>
+            <a:t>Utilization</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-TW" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>285750</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="771045" cy="264560"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="23" name="文字方塊 22"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="19640550" y="11268075"/>
+          <a:ext cx="771045" cy="264560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-TW" sz="1100"/>
+            <a:t>Utilization</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-TW" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>628650</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="848117" cy="264560"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="24" name="文字方塊 23"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4057650" y="8963025"/>
+          <a:ext cx="848117" cy="264560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-TW" sz="1100"/>
+            <a:t>Task amout</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-TW" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>257175</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="848117" cy="264560"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="25" name="文字方塊 24"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9324975" y="8972550"/>
+          <a:ext cx="848117" cy="264560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-TW" sz="1100"/>
+            <a:t>Task amout</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-TW" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>257175</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="848117" cy="264560"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="26" name="文字方塊 25"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9324975" y="11906250"/>
+          <a:ext cx="848117" cy="264560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-TW" sz="1100"/>
+            <a:t>Task amout</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-TW" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>257175</xdr:colOff>
+      <xdr:row>70</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="848117" cy="264560"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="27" name="文字方塊 26"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9324975" y="14830425"/>
+          <a:ext cx="848117" cy="264560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-TW" sz="1100"/>
+            <a:t>Task amout</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-TW" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>647700</xdr:colOff>
+      <xdr:row>70</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="848117" cy="264560"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="28" name="文字方塊 27"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4076700" y="14839950"/>
+          <a:ext cx="848117" cy="264560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-TW" sz="1100"/>
+            <a:t>Task amout</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-TW" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -5529,8 +6225,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:O30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="O25" sqref="O25"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="O23" sqref="O23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
